--- a/IPL_2025_Squads_Player_Team_Role_Only.xlsx
+++ b/IPL_2025_Squads_Player_Team_Role_Only.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="222">
   <si>
     <t>Team</t>
   </si>
@@ -100,34 +100,22 @@
     <t>Shaik Rasheed</t>
   </si>
   <si>
-    <t>Player 16 (CHE)</t>
-  </si>
-  <si>
-    <t>Player 17 (CHE)</t>
-  </si>
-  <si>
-    <t>Player 18 (CHE)</t>
-  </si>
-  <si>
-    <t>Player 19 (CHE)</t>
-  </si>
-  <si>
-    <t>Player 20 (CHE)</t>
-  </si>
-  <si>
-    <t>Player 21 (CHE)</t>
-  </si>
-  <si>
-    <t>Player 22 (CHE)</t>
-  </si>
-  <si>
-    <t>Player 23 (CHE)</t>
-  </si>
-  <si>
-    <t>Player 24 (CHE)</t>
-  </si>
-  <si>
-    <t>Player 25 (CHE)</t>
+    <t>Andre Siddarth</t>
+  </si>
+  <si>
+    <t>Gurjapneet Singh</t>
+  </si>
+  <si>
+    <t>Kamlesh Nagarkoti</t>
+  </si>
+  <si>
+    <t>Ramkrishna Ghosh</t>
+  </si>
+  <si>
+    <t>Anshul Kamboj</t>
+  </si>
+  <si>
+    <t>Vansh Bedi</t>
   </si>
   <si>
     <t>Rohit Sharma</t>
@@ -175,34 +163,31 @@
     <t>Arjun Tendulkar</t>
   </si>
   <si>
-    <t>Player 16 (MUM)</t>
-  </si>
-  <si>
-    <t>Player 17 (MUM)</t>
-  </si>
-  <si>
-    <t>Player 18 (MUM)</t>
-  </si>
-  <si>
-    <t>Player 19 (MUM)</t>
-  </si>
-  <si>
-    <t>Player 20 (MUM)</t>
-  </si>
-  <si>
-    <t>Player 21 (MUM)</t>
-  </si>
-  <si>
-    <t>Player 22 (MUM)</t>
-  </si>
-  <si>
-    <t>Player 23 (MUM)</t>
-  </si>
-  <si>
-    <t>Player 24 (MUM)</t>
-  </si>
-  <si>
-    <t>Player 25 (MUM)</t>
+    <t>Jason Behrendorff</t>
+  </si>
+  <si>
+    <t>Piyush Chawla</t>
+  </si>
+  <si>
+    <t>Akash Madhwal</t>
+  </si>
+  <si>
+    <t>Dewald Brevis</t>
+  </si>
+  <si>
+    <t>Nehal Wadhera</t>
+  </si>
+  <si>
+    <t>Romario Shepherd</t>
+  </si>
+  <si>
+    <t>Nuwan Thushara</t>
+  </si>
+  <si>
+    <t>Kumar Kartikeya</t>
+  </si>
+  <si>
+    <t>Shams Mulani</t>
   </si>
   <si>
     <t>Virat Kohli</t>
@@ -238,9 +223,6 @@
     <t>Tim David</t>
   </si>
   <si>
-    <t>Romario Shepherd</t>
-  </si>
-  <si>
     <t>Devdutt Padikkal</t>
   </si>
   <si>
@@ -250,34 +232,28 @@
     <t>Manoj Bhandage</t>
   </si>
   <si>
-    <t>Player 16 (ROY)</t>
-  </si>
-  <si>
-    <t>Player 17 (ROY)</t>
-  </si>
-  <si>
-    <t>Player 18 (ROY)</t>
-  </si>
-  <si>
-    <t>Player 19 (ROY)</t>
-  </si>
-  <si>
-    <t>Player 20 (ROY)</t>
-  </si>
-  <si>
-    <t>Player 21 (ROY)</t>
-  </si>
-  <si>
-    <t>Player 22 (ROY)</t>
-  </si>
-  <si>
-    <t>Player 23 (ROY)</t>
-  </si>
-  <si>
-    <t>Player 24 (ROY)</t>
-  </si>
-  <si>
-    <t>Player 25 (ROY)</t>
+    <t>Mahipal Lomror</t>
+  </si>
+  <si>
+    <t>Suyash Prabhudessai</t>
+  </si>
+  <si>
+    <t>Anuj Rawat</t>
+  </si>
+  <si>
+    <t>Karn Sharma</t>
+  </si>
+  <si>
+    <t>Akash Deep</t>
+  </si>
+  <si>
+    <t>Himanshu Sharma</t>
+  </si>
+  <si>
+    <t>Tom Curran</t>
+  </si>
+  <si>
+    <t>Alzarri Joseph</t>
   </si>
   <si>
     <t>Rinku Singh</t>
@@ -325,34 +301,25 @@
     <t>Ajinkya Rahane</t>
   </si>
   <si>
-    <t>Player 16 (KOL)</t>
-  </si>
-  <si>
-    <t>Player 17 (KOL)</t>
-  </si>
-  <si>
-    <t>Player 18 (KOL)</t>
-  </si>
-  <si>
-    <t>Player 19 (KOL)</t>
-  </si>
-  <si>
-    <t>Player 20 (KOL)</t>
-  </si>
-  <si>
-    <t>Player 21 (KOL)</t>
-  </si>
-  <si>
-    <t>Player 22 (KOL)</t>
-  </si>
-  <si>
-    <t>Player 23 (KOL)</t>
-  </si>
-  <si>
-    <t>Player 24 (KOL)</t>
-  </si>
-  <si>
-    <t>Player 25 (KOL)</t>
+    <t>KS Bharat</t>
+  </si>
+  <si>
+    <t>Harshit Rana</t>
+  </si>
+  <si>
+    <t>Anukul Roy</t>
+  </si>
+  <si>
+    <t>Sherfane Rutherford</t>
+  </si>
+  <si>
+    <t>Dinesh Bana</t>
+  </si>
+  <si>
+    <t>Arya Desai</t>
+  </si>
+  <si>
+    <t>Tanush Kotian</t>
   </si>
   <si>
     <t>Sanju Samson</t>
@@ -382,9 +349,6 @@
     <t>Wanindu Hasaranga</t>
   </si>
   <si>
-    <t>Akash Madhwal</t>
-  </si>
-  <si>
     <t>Nitish Rana</t>
   </si>
   <si>
@@ -400,34 +364,22 @@
     <t>Kunal Rathore</t>
   </si>
   <si>
-    <t>Player 16 (RAJ)</t>
-  </si>
-  <si>
-    <t>Player 17 (RAJ)</t>
-  </si>
-  <si>
-    <t>Player 18 (RAJ)</t>
-  </si>
-  <si>
-    <t>Player 19 (RAJ)</t>
-  </si>
-  <si>
-    <t>Player 20 (RAJ)</t>
-  </si>
-  <si>
-    <t>Player 21 (RAJ)</t>
-  </si>
-  <si>
-    <t>Player 22 (RAJ)</t>
-  </si>
-  <si>
-    <t>Player 23 (RAJ)</t>
-  </si>
-  <si>
-    <t>Player 24 (RAJ)</t>
-  </si>
-  <si>
-    <t>Player 25 (RAJ)</t>
+    <t>Kumar Kartikeya Singh</t>
+  </si>
+  <si>
+    <t>Yudhvir Charak</t>
+  </si>
+  <si>
+    <t>Fazalhaq Farooqi</t>
+  </si>
+  <si>
+    <t>Vaibhav Suryavanshi</t>
+  </si>
+  <si>
+    <t>Kwena Maphaka</t>
+  </si>
+  <si>
+    <t>Kunal Singh Rathore</t>
   </si>
   <si>
     <t>Shashank Singh</t>
@@ -466,34 +418,13 @@
     <t>Chris Woakes</t>
   </si>
   <si>
-    <t>Player 16 (PUN)</t>
-  </si>
-  <si>
-    <t>Player 17 (PUN)</t>
-  </si>
-  <si>
-    <t>Player 18 (PUN)</t>
-  </si>
-  <si>
-    <t>Player 19 (PUN)</t>
-  </si>
-  <si>
-    <t>Player 20 (PUN)</t>
-  </si>
-  <si>
-    <t>Player 21 (PUN)</t>
-  </si>
-  <si>
-    <t>Player 22 (PUN)</t>
-  </si>
-  <si>
-    <t>Player 23 (PUN)</t>
-  </si>
-  <si>
-    <t>Player 24 (PUN)</t>
-  </si>
-  <si>
-    <t>Player 25 (PUN)</t>
+    <t>Shivam Singh</t>
+  </si>
+  <si>
+    <t>Ashutosh Sharma</t>
+  </si>
+  <si>
+    <t>Tanay Thyagarajan</t>
   </si>
   <si>
     <t>Axar Patel</t>
@@ -541,34 +472,28 @@
     <t>Ajay Mandal</t>
   </si>
   <si>
-    <t>Player 16 (DEL)</t>
-  </si>
-  <si>
-    <t>Player 17 (DEL)</t>
-  </si>
-  <si>
-    <t>Player 18 (DEL)</t>
-  </si>
-  <si>
-    <t>Player 19 (DEL)</t>
-  </si>
-  <si>
-    <t>Player 20 (DEL)</t>
-  </si>
-  <si>
-    <t>Player 21 (DEL)</t>
-  </si>
-  <si>
-    <t>Player 22 (DEL)</t>
-  </si>
-  <si>
-    <t>Player 23 (DEL)</t>
-  </si>
-  <si>
-    <t>Player 24 (DEL)</t>
-  </si>
-  <si>
-    <t>Player 25 (DEL)</t>
+    <t>Donovan Ferreira</t>
+  </si>
+  <si>
+    <t>Dushmantha Chameera</t>
+  </si>
+  <si>
+    <t>Manvanth Kumar</t>
+  </si>
+  <si>
+    <t>Darshan Nalkande</t>
+  </si>
+  <si>
+    <t>Thangarasu Natarajan</t>
+  </si>
+  <si>
+    <t>Vipraj Nigam</t>
+  </si>
+  <si>
+    <t>Tripurana Vijay</t>
+  </si>
+  <si>
+    <t>Madhav Tiwari</t>
   </si>
   <si>
     <t>Heinrich Klaasen</t>
@@ -610,34 +535,16 @@
     <t>Sachin Baby</t>
   </si>
   <si>
-    <t>Player 16 (SUN)</t>
-  </si>
-  <si>
-    <t>Player 17 (SUN)</t>
-  </si>
-  <si>
-    <t>Player 18 (SUN)</t>
-  </si>
-  <si>
-    <t>Player 19 (SUN)</t>
-  </si>
-  <si>
-    <t>Player 20 (SUN)</t>
-  </si>
-  <si>
-    <t>Player 21 (SUN)</t>
-  </si>
-  <si>
-    <t>Player 22 (SUN)</t>
-  </si>
-  <si>
-    <t>Player 23 (SUN)</t>
-  </si>
-  <si>
-    <t>Player 24 (SUN)</t>
-  </si>
-  <si>
-    <t>Player 25 (SUN)</t>
+    <t>Zeeshan Ansari</t>
+  </si>
+  <si>
+    <t>Wiaan Mulder</t>
+  </si>
+  <si>
+    <t>Aniket Verma</t>
+  </si>
+  <si>
+    <t>Eshan Malinga</t>
   </si>
   <si>
     <t>Shubman Gill</t>
@@ -667,15 +574,9 @@
     <t>Prasidh Krishna</t>
   </si>
   <si>
-    <t>Mahipal Lomror</t>
-  </si>
-  <si>
     <t>Kumar Kushagra</t>
   </si>
   <si>
-    <t>Anuj Rawat</t>
-  </si>
-  <si>
     <t>Washington Sundar</t>
   </si>
   <si>
@@ -685,34 +586,28 @@
     <t>Ishant Sharma</t>
   </si>
   <si>
-    <t>Player 16 (GUJ)</t>
-  </si>
-  <si>
-    <t>Player 17 (GUJ)</t>
-  </si>
-  <si>
-    <t>Player 18 (GUJ)</t>
-  </si>
-  <si>
-    <t>Player 19 (GUJ)</t>
-  </si>
-  <si>
-    <t>Player 20 (GUJ)</t>
-  </si>
-  <si>
-    <t>Player 21 (GUJ)</t>
-  </si>
-  <si>
-    <t>Player 22 (GUJ)</t>
-  </si>
-  <si>
-    <t>Player 23 (GUJ)</t>
-  </si>
-  <si>
-    <t>Player 24 (GUJ)</t>
-  </si>
-  <si>
-    <t>Player 25 (GUJ)</t>
+    <t>Gurnoor Brar</t>
+  </si>
+  <si>
+    <t>Karim Janat</t>
+  </si>
+  <si>
+    <t>Arshad Khan</t>
+  </si>
+  <si>
+    <t>Kulwant Khejroliya</t>
+  </si>
+  <si>
+    <t>Sai Kishore</t>
+  </si>
+  <si>
+    <t>Jayant Yadav</t>
+  </si>
+  <si>
+    <t>Matthew Breetzke</t>
+  </si>
+  <si>
+    <t>Kuldeep Sen</t>
   </si>
   <si>
     <t>Nicholas Pooran</t>
@@ -748,9 +643,6 @@
     <t>Abdul Samad</t>
   </si>
   <si>
-    <t>Akash Deep</t>
-  </si>
-  <si>
     <t>Himmat Singh</t>
   </si>
   <si>
@@ -760,34 +652,22 @@
     <t>Shamar Joseph</t>
   </si>
   <si>
-    <t>Player 16 (LUC)</t>
-  </si>
-  <si>
-    <t>Player 17 (LUC)</t>
-  </si>
-  <si>
-    <t>Player 18 (LUC)</t>
-  </si>
-  <si>
-    <t>Player 19 (LUC)</t>
-  </si>
-  <si>
-    <t>Player 20 (LUC)</t>
-  </si>
-  <si>
-    <t>Player 21 (LUC)</t>
-  </si>
-  <si>
-    <t>Player 22 (LUC)</t>
-  </si>
-  <si>
-    <t>Player 23 (LUC)</t>
-  </si>
-  <si>
-    <t>Player 24 (LUC)</t>
-  </si>
-  <si>
-    <t>Player 25 (LUC)</t>
+    <t>Karthik Tyagi</t>
+  </si>
+  <si>
+    <t>Krishnappa Gowtham</t>
+  </si>
+  <si>
+    <t>Shivam Mavi</t>
+  </si>
+  <si>
+    <t>David Willey</t>
+  </si>
+  <si>
+    <t>Arshin Kulkarni</t>
+  </si>
+  <si>
+    <t>Saurabh Kumar</t>
   </si>
   <si>
     <t>Batter</t>
@@ -1182,7 +1062,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1193,7 +1073,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1204,7 +1084,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1215,7 +1095,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1226,7 +1106,7 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1237,7 +1117,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1248,7 +1128,7 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1259,7 +1139,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1270,7 +1150,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1281,7 +1161,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1292,7 +1172,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1303,7 +1183,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1314,7 +1194,7 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1325,7 +1205,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1336,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1347,7 +1227,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1358,7 +1238,7 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1369,7 +1249,7 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1380,7 +1260,7 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1388,10 +1268,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1399,10 +1279,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1410,10 +1290,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1421,10 +1301,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1432,10 +1312,10 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1443,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1454,10 +1334,10 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1465,10 +1345,10 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1476,10 +1356,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1487,10 +1367,10 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1498,10 +1378,10 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1509,10 +1389,10 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1520,10 +1400,10 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1531,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1542,10 +1422,10 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1553,10 +1433,10 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1564,10 +1444,10 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1575,10 +1455,10 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1586,10 +1466,10 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1597,10 +1477,10 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1608,10 +1488,10 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1619,10 +1499,10 @@
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1630,10 +1510,10 @@
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1641,10 +1521,10 @@
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1652,10 +1532,10 @@
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1663,10 +1543,10 @@
         <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1674,10 +1554,10 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1685,10 +1565,10 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1696,10 +1576,10 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1707,10 +1587,10 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1718,10 +1598,10 @@
         <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1729,10 +1609,10 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1740,10 +1620,10 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1751,10 +1631,10 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1762,10 +1642,10 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1773,10 +1653,10 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1784,10 +1664,10 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1795,10 +1675,10 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1806,10 +1686,10 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1817,10 +1697,10 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1828,10 +1708,10 @@
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1839,10 +1719,10 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C62" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1850,10 +1730,10 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1861,10 +1741,10 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1872,10 +1752,10 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1883,10 +1763,10 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1894,10 +1774,10 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1905,10 +1785,10 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1916,10 +1796,10 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1927,10 +1807,10 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1938,10 +1818,10 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C71" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1949,10 +1829,10 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1960,10 +1840,10 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1971,10 +1851,10 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1982,10 +1862,10 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1993,10 +1873,10 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2004,10 +1884,10 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2015,10 +1895,10 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2026,10 +1906,10 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2037,10 +1917,10 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2048,10 +1928,10 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2059,10 +1939,10 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2070,10 +1950,10 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2081,10 +1961,10 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2092,10 +1972,10 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2103,10 +1983,10 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2114,10 +1994,10 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2125,10 +2005,10 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2136,10 +2016,10 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2147,10 +2027,10 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2158,10 +2038,10 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2169,10 +2049,10 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C92" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2180,10 +2060,10 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2191,10 +2071,10 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2202,10 +2082,10 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C95" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2213,10 +2093,10 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2224,10 +2104,10 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2235,10 +2115,10 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2246,10 +2126,10 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2257,10 +2137,10 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="C100" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2268,10 +2148,10 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2279,10 +2159,10 @@
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2290,10 +2170,10 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2301,10 +2181,10 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2312,10 +2192,10 @@
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2323,10 +2203,10 @@
         <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2334,10 +2214,10 @@
         <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2345,10 +2225,10 @@
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2356,10 +2236,10 @@
         <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2367,10 +2247,10 @@
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2378,10 +2258,10 @@
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C111" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2389,10 +2269,10 @@
         <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C112" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2400,10 +2280,10 @@
         <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C113" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2411,10 +2291,10 @@
         <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C114" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2422,10 +2302,10 @@
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C115" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2433,10 +2313,10 @@
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C116" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2444,10 +2324,10 @@
         <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2455,10 +2335,10 @@
         <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C118" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2466,10 +2346,10 @@
         <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C119" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2477,10 +2357,10 @@
         <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C120" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2488,10 +2368,10 @@
         <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C121" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2499,10 +2379,10 @@
         <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C122" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2510,10 +2390,10 @@
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2521,10 +2401,10 @@
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C124" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2532,10 +2412,10 @@
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C125" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2543,10 +2423,10 @@
         <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C126" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2554,10 +2434,10 @@
         <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C127" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2565,10 +2445,10 @@
         <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C128" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2576,10 +2456,10 @@
         <v>8</v>
       </c>
       <c r="B129" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C129" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2587,10 +2467,10 @@
         <v>8</v>
       </c>
       <c r="B130" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C130" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2598,10 +2478,10 @@
         <v>8</v>
       </c>
       <c r="B131" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C131" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2609,10 +2489,10 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C132" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2620,10 +2500,10 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C133" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2634,7 +2514,7 @@
         <v>20</v>
       </c>
       <c r="C134" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2642,10 +2522,10 @@
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C135" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2656,7 +2536,7 @@
         <v>21</v>
       </c>
       <c r="C136" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2664,10 +2544,10 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C137" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2675,10 +2555,10 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C138" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2686,10 +2566,10 @@
         <v>8</v>
       </c>
       <c r="B139" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C139" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2697,10 +2577,10 @@
         <v>8</v>
       </c>
       <c r="B140" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C140" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2708,10 +2588,10 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C141" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2719,10 +2599,10 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="C142" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2730,10 +2610,10 @@
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="C143" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2741,10 +2621,10 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C144" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2752,10 +2632,10 @@
         <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C145" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2763,10 +2643,10 @@
         <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="C146" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2774,10 +2654,10 @@
         <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C147" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2785,10 +2665,10 @@
         <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C148" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2796,10 +2676,10 @@
         <v>8</v>
       </c>
       <c r="B149" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C149" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2807,10 +2687,10 @@
         <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="C150" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2818,10 +2698,10 @@
         <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="C151" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2829,10 +2709,10 @@
         <v>9</v>
       </c>
       <c r="B152" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C152" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2840,10 +2720,10 @@
         <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C153" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2851,10 +2731,10 @@
         <v>9</v>
       </c>
       <c r="B154" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C154" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2862,10 +2742,10 @@
         <v>9</v>
       </c>
       <c r="B155" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C155" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2873,10 +2753,10 @@
         <v>9</v>
       </c>
       <c r="B156" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C156" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2884,10 +2764,10 @@
         <v>9</v>
       </c>
       <c r="B157" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="C157" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2895,10 +2775,10 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C158" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2906,10 +2786,10 @@
         <v>9</v>
       </c>
       <c r="B159" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C159" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2917,10 +2797,10 @@
         <v>9</v>
       </c>
       <c r="B160" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C160" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2928,10 +2808,10 @@
         <v>9</v>
       </c>
       <c r="B161" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C161" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2939,10 +2819,10 @@
         <v>9</v>
       </c>
       <c r="B162" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C162" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2950,10 +2830,10 @@
         <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C163" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2961,10 +2841,10 @@
         <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C164" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2972,10 +2852,10 @@
         <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="C165" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2983,10 +2863,10 @@
         <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="C166" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2994,10 +2874,10 @@
         <v>9</v>
       </c>
       <c r="B167" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="C167" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3005,10 +2885,10 @@
         <v>9</v>
       </c>
       <c r="B168" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C168" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3016,10 +2896,10 @@
         <v>9</v>
       </c>
       <c r="B169" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C169" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3027,10 +2907,10 @@
         <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="C170" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3038,10 +2918,10 @@
         <v>9</v>
       </c>
       <c r="B171" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C171" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3049,10 +2929,10 @@
         <v>9</v>
       </c>
       <c r="B172" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C172" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3060,10 +2940,10 @@
         <v>9</v>
       </c>
       <c r="B173" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C173" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3071,10 +2951,10 @@
         <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="C174" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3082,10 +2962,10 @@
         <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C175" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3093,10 +2973,10 @@
         <v>9</v>
       </c>
       <c r="B176" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C176" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3104,10 +2984,10 @@
         <v>10</v>
       </c>
       <c r="B177" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C177" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3115,10 +2995,10 @@
         <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="C178" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3126,10 +3006,10 @@
         <v>10</v>
       </c>
       <c r="B179" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C179" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3137,10 +3017,10 @@
         <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="C180" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3148,10 +3028,10 @@
         <v>10</v>
       </c>
       <c r="B181" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C181" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3159,10 +3039,10 @@
         <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C182" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3170,10 +3050,10 @@
         <v>10</v>
       </c>
       <c r="B183" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="C183" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3181,10 +3061,10 @@
         <v>10</v>
       </c>
       <c r="B184" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C184" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3192,10 +3072,10 @@
         <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="C185" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3203,10 +3083,10 @@
         <v>10</v>
       </c>
       <c r="B186" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C186" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3214,10 +3094,10 @@
         <v>10</v>
       </c>
       <c r="B187" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="C187" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3225,10 +3105,10 @@
         <v>10</v>
       </c>
       <c r="B188" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="C188" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3236,10 +3116,10 @@
         <v>10</v>
       </c>
       <c r="B189" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="C189" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3247,10 +3127,10 @@
         <v>10</v>
       </c>
       <c r="B190" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="C190" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3258,10 +3138,10 @@
         <v>10</v>
       </c>
       <c r="B191" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C191" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3269,10 +3149,10 @@
         <v>10</v>
       </c>
       <c r="B192" t="s">
-        <v>198</v>
+        <v>131</v>
       </c>
       <c r="C192" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3280,10 +3160,10 @@
         <v>10</v>
       </c>
       <c r="B193" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="C193" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3291,10 +3171,10 @@
         <v>10</v>
       </c>
       <c r="B194" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="C194" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3302,10 +3182,10 @@
         <v>10</v>
       </c>
       <c r="B195" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="C195" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3313,10 +3193,10 @@
         <v>10</v>
       </c>
       <c r="B196" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="C196" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3324,10 +3204,10 @@
         <v>10</v>
       </c>
       <c r="B197" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="C197" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3335,10 +3215,10 @@
         <v>10</v>
       </c>
       <c r="B198" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="C198" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3346,10 +3226,10 @@
         <v>10</v>
       </c>
       <c r="B199" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="C199" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3357,10 +3237,10 @@
         <v>10</v>
       </c>
       <c r="B200" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="C200" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3368,10 +3248,10 @@
         <v>10</v>
       </c>
       <c r="B201" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="C201" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3379,10 +3259,10 @@
         <v>11</v>
       </c>
       <c r="B202" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="C202" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3390,10 +3270,10 @@
         <v>11</v>
       </c>
       <c r="B203" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="C203" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3401,10 +3281,10 @@
         <v>11</v>
       </c>
       <c r="B204" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="C204" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3412,10 +3292,10 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="C205" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3423,10 +3303,10 @@
         <v>11</v>
       </c>
       <c r="B206" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="C206" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3434,10 +3314,10 @@
         <v>11</v>
       </c>
       <c r="B207" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="C207" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3445,10 +3325,10 @@
         <v>11</v>
       </c>
       <c r="B208" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="C208" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3456,10 +3336,10 @@
         <v>11</v>
       </c>
       <c r="B209" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="C209" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3467,10 +3347,10 @@
         <v>11</v>
       </c>
       <c r="B210" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="C210" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3478,10 +3358,10 @@
         <v>11</v>
       </c>
       <c r="B211" t="s">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="C211" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3489,10 +3369,10 @@
         <v>11</v>
       </c>
       <c r="B212" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="C212" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3500,10 +3380,10 @@
         <v>11</v>
       </c>
       <c r="B213" t="s">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="C213" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3511,10 +3391,10 @@
         <v>11</v>
       </c>
       <c r="B214" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="C214" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3522,10 +3402,10 @@
         <v>11</v>
       </c>
       <c r="B215" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="C215" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3533,10 +3413,10 @@
         <v>11</v>
       </c>
       <c r="B216" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="C216" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3544,10 +3424,10 @@
         <v>11</v>
       </c>
       <c r="B217" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="C217" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3555,10 +3435,10 @@
         <v>11</v>
       </c>
       <c r="B218" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="C218" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3566,10 +3446,10 @@
         <v>11</v>
       </c>
       <c r="B219" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="C219" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3577,10 +3457,10 @@
         <v>11</v>
       </c>
       <c r="B220" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="C220" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3588,10 +3468,10 @@
         <v>11</v>
       </c>
       <c r="B221" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="C221" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3599,10 +3479,10 @@
         <v>11</v>
       </c>
       <c r="B222" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="C222" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3610,10 +3490,10 @@
         <v>11</v>
       </c>
       <c r="B223" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="C223" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3621,10 +3501,10 @@
         <v>11</v>
       </c>
       <c r="B224" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="C224" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3632,10 +3512,10 @@
         <v>11</v>
       </c>
       <c r="B225" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="C225" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3643,10 +3523,10 @@
         <v>11</v>
       </c>
       <c r="B226" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="C226" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3654,10 +3534,10 @@
         <v>12</v>
       </c>
       <c r="B227" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="C227" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3665,10 +3545,10 @@
         <v>12</v>
       </c>
       <c r="B228" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="C228" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3676,10 +3556,10 @@
         <v>12</v>
       </c>
       <c r="B229" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="C229" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3687,10 +3567,10 @@
         <v>12</v>
       </c>
       <c r="B230" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="C230" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3698,10 +3578,10 @@
         <v>12</v>
       </c>
       <c r="B231" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="C231" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3709,10 +3589,10 @@
         <v>12</v>
       </c>
       <c r="B232" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="C232" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3720,10 +3600,10 @@
         <v>12</v>
       </c>
       <c r="B233" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="C233" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3731,10 +3611,10 @@
         <v>12</v>
       </c>
       <c r="B234" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="C234" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3742,10 +3622,10 @@
         <v>12</v>
       </c>
       <c r="B235" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="C235" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3753,10 +3633,10 @@
         <v>12</v>
       </c>
       <c r="B236" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="C236" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3764,10 +3644,10 @@
         <v>12</v>
       </c>
       <c r="B237" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C237" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3775,10 +3655,10 @@
         <v>12</v>
       </c>
       <c r="B238" t="s">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="C238" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3786,10 +3666,10 @@
         <v>12</v>
       </c>
       <c r="B239" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="C239" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3797,10 +3677,10 @@
         <v>12</v>
       </c>
       <c r="B240" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="C240" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3808,10 +3688,10 @@
         <v>12</v>
       </c>
       <c r="B241" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="C241" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3819,10 +3699,10 @@
         <v>12</v>
       </c>
       <c r="B242" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="C242" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3830,10 +3710,10 @@
         <v>12</v>
       </c>
       <c r="B243" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="C243" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3841,10 +3721,10 @@
         <v>12</v>
       </c>
       <c r="B244" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
       <c r="C244" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3852,10 +3732,10 @@
         <v>12</v>
       </c>
       <c r="B245" t="s">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="C245" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3863,10 +3743,10 @@
         <v>12</v>
       </c>
       <c r="B246" t="s">
-        <v>252</v>
+        <v>66</v>
       </c>
       <c r="C246" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3874,10 +3754,10 @@
         <v>12</v>
       </c>
       <c r="B247" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="C247" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3885,10 +3765,10 @@
         <v>12</v>
       </c>
       <c r="B248" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="C248" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3896,10 +3776,10 @@
         <v>12</v>
       </c>
       <c r="B249" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="C249" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3907,10 +3787,10 @@
         <v>12</v>
       </c>
       <c r="B250" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="C250" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3918,10 +3798,10 @@
         <v>12</v>
       </c>
       <c r="B251" t="s">
-        <v>257</v>
+        <v>117</v>
       </c>
       <c r="C251" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
